--- a/data/trans_camb/P16A08-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.736333395420866</v>
+        <v>-2.77700682703072</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.22774347314864</v>
+        <v>-3.178454532856138</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.754197354980073</v>
+        <v>-3.575533970010193</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.1538135792440138</v>
+        <v>-0.09569953287719503</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.649269153101754</v>
+        <v>-0.6184915908570551</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4916800891224612</v>
+        <v>0.4019290481436652</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.6705042397912564</v>
+        <v>-0.6969769605834248</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.231309740268889</v>
+        <v>-1.352062412606239</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.164768727936749</v>
+        <v>-0.9835609275642574</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.959030461079684</v>
+        <v>2.935511175645825</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.192653437209216</v>
+        <v>2.225591305177691</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.44862876612998</v>
+        <v>1.722379932432098</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.169182692982875</v>
+        <v>6.348497201389888</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.275288403445895</v>
+        <v>5.125240372560796</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.718391891215185</v>
+        <v>5.413919661660263</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.703830095503333</v>
+        <v>3.478927667206775</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.627842096712095</v>
+        <v>2.586107269658345</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.720222297829098</v>
+        <v>2.635258748187949</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4975138147839183</v>
+        <v>-0.5130875300900387</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5938470752798665</v>
+        <v>-0.5794837736832277</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6731587790792916</v>
+        <v>-0.6810510806711653</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1557632008748814</v>
+        <v>-0.1033981311187015</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2005686772018363</v>
+        <v>-0.2736273505882084</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06599441864111828</v>
+        <v>0.06089662000772019</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1810159361517829</v>
+        <v>-0.1967421404735166</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3140651023636138</v>
+        <v>-0.3253470457642628</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2706184467405642</v>
+        <v>-0.2447107429947878</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.0994614863311</v>
+        <v>1.019094944019488</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.8032208232688752</v>
+        <v>0.8753079783462507</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5361871393013538</v>
+        <v>0.6325603117280527</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.457279456748272</v>
+        <v>4.77291278564859</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.199304509857682</v>
+        <v>3.785580937462818</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.372273718364937</v>
+        <v>4.051398389891186</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.43869692791829</v>
+        <v>1.253524200368693</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.072110411552935</v>
+        <v>1.011493810267905</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.087491744113997</v>
+        <v>0.9919279481514346</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>3.095409917085028</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.778536236273235</v>
+        <v>2.778536236273234</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.1719796031150314</v>
@@ -869,7 +869,7 @@
         <v>-1.332858979079167</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.6702462523247743</v>
+        <v>0.6702462523247756</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.98373972134739</v>
@@ -878,7 +878,7 @@
         <v>0.8542175467950407</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.565290976820244</v>
+        <v>1.565290976820245</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.962858438107588</v>
+        <v>2.158747084294371</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.153808357434052</v>
+        <v>1.331921003629212</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.164246259548358</v>
+        <v>1.009716163368358</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.847329868797472</v>
+        <v>-3.932448193529651</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.259554074572134</v>
+        <v>-5.070656868572254</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.928226578863062</v>
+        <v>-2.708011018801586</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.4410627477851569</v>
+        <v>-0.2990558559497271</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.286997488392269</v>
+        <v>-1.19120036236059</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.5006894328401201</v>
+        <v>-0.7584474033537768</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.044357865882758</v>
+        <v>7.088487781825649</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.550655520619287</v>
+        <v>5.858474680339358</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.125065133875064</v>
+        <v>5.062241115000757</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.989968440957439</v>
+        <v>3.986762130180736</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.944406056196489</v>
+        <v>2.459734979625654</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.757083287951682</v>
+        <v>4.362877060630101</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.56997252704264</v>
+        <v>4.335239548169705</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.194304944946931</v>
+        <v>2.910035158126186</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.540409384558211</v>
+        <v>3.344896816238093</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>5.66678344452132</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>5.086681107019029</v>
+        <v>5.086681107019027</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.0252037746435075</v>
@@ -974,7 +974,7 @@
         <v>-0.1953317529045437</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09822522667382882</v>
+        <v>0.09822522667382902</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.5352996907276897</v>
@@ -983,7 +983,7 @@
         <v>0.2305052339744302</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.422383928079841</v>
+        <v>0.4223839280798412</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.5790532496660162</v>
+        <v>0.7941163550605416</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.5535009043519876</v>
+        <v>0.4199311300190219</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3382320301538179</v>
+        <v>0.1975962498261881</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4334289277192901</v>
+        <v>-0.4385935477605371</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5671142374050802</v>
+        <v>-0.5802828379060277</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3114053002456512</v>
+        <v>-0.3139445435390658</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.09778731212820575</v>
+        <v>-0.08113741210279983</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2906678462295239</v>
+        <v>-0.2751691534805046</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1068107700898209</v>
+        <v>-0.1493130551526054</v>
       </c>
     </row>
     <row r="15">
@@ -1032,22 +1032,22 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>0.8361787552686605</v>
+        <v>0.8170600004822937</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4202256117670995</v>
+        <v>0.5328349148222117</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.03965878947564</v>
+        <v>0.9218893278572927</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.654524376152045</v>
+        <v>1.590741489560772</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.091647788480862</v>
+        <v>1.032154786421956</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.344380741066108</v>
+        <v>1.235861379188337</v>
       </c>
     </row>
     <row r="16">
@@ -1077,7 +1077,7 @@
         <v>6.425326296975851</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>3.708168012829001</v>
+        <v>3.708168012829</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.327723906024884</v>
@@ -1097,31 +1097,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.651120506797731</v>
+        <v>-1.499573393477412</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.521426161270493</v>
+        <v>-2.195049262973358</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.7576277622905069</v>
+        <v>-0.5546477082017883</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.2418281131960702</v>
+        <v>0.1206213372797059</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.839471192285946</v>
+        <v>2.184557142008856</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4645535916995214</v>
+        <v>0.3449718300212153</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.4294290994525038</v>
+        <v>-0.3472510628082449</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.2739742156856789</v>
+        <v>-0.4678866495559781</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3275004132714945</v>
+        <v>0.4471619760726367</v>
       </c>
     </row>
     <row r="18">
@@ -1132,31 +1132,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.923846046840565</v>
+        <v>2.66196179187239</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.754204141419857</v>
+        <v>1.756715037638637</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.177522313552123</v>
+        <v>4.454829579209647</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.02282820633456</v>
+        <v>6.933408152077239</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.88031100542269</v>
+        <v>12.20095577603649</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.150327013434948</v>
+        <v>6.894184054056851</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.342166148082804</v>
+        <v>3.217907097370326</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.532023122165203</v>
+        <v>3.2325938735921</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.611804118570475</v>
+        <v>4.237902859484661</v>
       </c>
     </row>
     <row r="19">
@@ -1182,7 +1182,7 @@
         <v>3.568123602081583</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2.059226441665154</v>
+        <v>2.059226441665153</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.5393313866625382</v>
@@ -1202,31 +1202,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4834755155827865</v>
+        <v>-0.4569323757960734</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6293172756762485</v>
+        <v>-0.5851937925016641</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2496183350229564</v>
+        <v>-0.2141174083153228</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2160177535450106</v>
+        <v>-0.2670708742635562</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1962879240126695</v>
+        <v>0.3517974231881651</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1196557046942586</v>
+        <v>-0.2193750055922569</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1513492150559886</v>
+        <v>-0.1289117505592882</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1098163868924435</v>
+        <v>-0.179600926312952</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.06698260542620522</v>
+        <v>0.09681083938805701</v>
       </c>
     </row>
     <row r="21">
@@ -1237,31 +1237,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.701097212808647</v>
+        <v>1.492876818685932</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.035780198910941</v>
+        <v>1.027243237626798</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.495269781497768</v>
+        <v>2.588891916346407</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>12.6592430973962</v>
+        <v>10.36750057351954</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>21.49297947113729</v>
+        <v>18.44911907124301</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>12.12015929767959</v>
+        <v>12.96327951201303</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.000709687245559</v>
+        <v>1.861563803557769</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.110208761322926</v>
+        <v>2.053454436545698</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.664760784552617</v>
+        <v>2.524067717534261</v>
       </c>
     </row>
     <row r="22">
@@ -1282,7 +1282,7 @@
         <v>0.01879924808091543</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6901200834884615</v>
+        <v>0.690120083488462</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.026770401675068</v>
@@ -1291,7 +1291,7 @@
         <v>1.852912589721084</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.4483640169839126</v>
+        <v>0.4483640169839119</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.26246296056715</v>
@@ -1311,31 +1311,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.353257197976191</v>
+        <v>-1.353940546937404</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.223841002473875</v>
+        <v>-1.268980069436393</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.8864733849167767</v>
+        <v>-0.8047032124807568</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6527841462486488</v>
+        <v>0.4447274204280324</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.340002532799502</v>
+        <v>-0.4506178143634298</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.726032483632499</v>
+        <v>-1.504883594724284</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.07759641510517107</v>
+        <v>-0.0914797698180493</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.2524104053549718</v>
+        <v>-0.4242418719260228</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.4510835333554735</v>
+        <v>-0.5501879314838204</v>
       </c>
     </row>
     <row r="24">
@@ -1346,31 +1346,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.331548596231454</v>
+        <v>1.231309405367943</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.415152997380422</v>
+        <v>1.240270014134871</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.084856663403976</v>
+        <v>2.205157368639658</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.623782824937479</v>
+        <v>5.133220675554361</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.236088815194466</v>
+        <v>4.065258256507627</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.374202678997896</v>
+        <v>2.275540161285071</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.559553852412993</v>
+        <v>2.470345444127806</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.07950914542472</v>
+        <v>2.087724840050547</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.959471324687525</v>
+        <v>1.86508322323795</v>
       </c>
     </row>
     <row r="25">
@@ -1387,7 +1387,7 @@
         <v>0.007854754113608274</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2883478924972363</v>
+        <v>0.2883478924972365</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.7227572562852012</v>
@@ -1396,7 +1396,7 @@
         <v>0.4424537846484746</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1070640662248331</v>
+        <v>0.1070640662248329</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.4139514446081676</v>
@@ -1416,31 +1416,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4511834463434701</v>
+        <v>-0.4548548285475668</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4171197764622623</v>
+        <v>-0.423234775063896</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.30432337994444</v>
+        <v>-0.2793823579189458</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1002616173183944</v>
+        <v>0.0716485966762988</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.05960393641841869</v>
+        <v>-0.09779911349216312</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3253623361534774</v>
+        <v>-0.2902903127618493</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.007084567673794499</v>
+        <v>-0.03598896260037845</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.0712739539330747</v>
+        <v>-0.1116601137037038</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1328493307320372</v>
+        <v>-0.1505653133156619</v>
       </c>
     </row>
     <row r="27">
@@ -1451,31 +1451,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.773760568102578</v>
+        <v>0.7184326234037154</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.8435744508310671</v>
+        <v>0.7216174411874033</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.164916940796819</v>
+        <v>1.22942523634763</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.736950353586992</v>
+        <v>1.57720051048065</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.411599474559759</v>
+        <v>1.273148664990548</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7681224242734529</v>
+        <v>0.7207402962570526</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.033102112051179</v>
+        <v>0.9615847456734168</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.8718534177796882</v>
+        <v>0.8576127717026</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7878700992991646</v>
+        <v>0.7305256414691608</v>
       </c>
     </row>
     <row r="28">
@@ -1514,7 +1514,7 @@
         <v>1.563694952431498</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.425113849534762</v>
+        <v>1.425113849534761</v>
       </c>
     </row>
     <row r="29">
@@ -1525,31 +1525,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.9469652781279687</v>
+        <v>-0.7618818704567191</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.4235048342219715</v>
+        <v>-0.3743623639991837</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.2846741614567267</v>
+        <v>-0.2511493035906969</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.759775665956063</v>
+        <v>-1.711090302265526</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.7563841959692668</v>
+        <v>-0.5679903974078893</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.8410692724289027</v>
+        <v>-0.7765283451461563</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.6807438952856347</v>
+        <v>-0.7224210827667057</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.1062302162453361</v>
+        <v>-0.09230303440927565</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.1390289325752845</v>
+        <v>-0.1050984845209762</v>
       </c>
     </row>
     <row r="30">
@@ -1560,31 +1560,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.320242791951548</v>
+        <v>3.197753073106468</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.502066288242095</v>
+        <v>3.497003836728553</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.024816823133352</v>
+        <v>4.042887857238108</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.509304084951363</v>
+        <v>2.644126483285997</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.97047388028298</v>
+        <v>3.967040229174765</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.248679740279918</v>
+        <v>3.247914076503999</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.427227456041637</v>
+        <v>2.401494187635443</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.117174219574704</v>
+        <v>3.028542994993583</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.783877213559641</v>
+        <v>2.867172107308086</v>
       </c>
     </row>
     <row r="31">
@@ -1619,7 +1619,7 @@
         <v>0.5686826293955728</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.5182836267913187</v>
+        <v>0.5182836267913183</v>
       </c>
     </row>
     <row r="32">
@@ -1630,31 +1630,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4090661599559641</v>
+        <v>-0.3387320477653274</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2401844093820427</v>
+        <v>-0.2279377077593296</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2335862341161523</v>
+        <v>-0.2494556267676703</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3837178505796116</v>
+        <v>-0.3591894686239616</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.18704482765669</v>
+        <v>-0.130454237202693</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1812547624404628</v>
+        <v>-0.2001438358529611</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2059528028147609</v>
+        <v>-0.2138581434114254</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.05003430201823963</v>
+        <v>-0.03439270863566931</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.06062990982706846</v>
+        <v>-0.0423368870273832</v>
       </c>
     </row>
     <row r="33">
@@ -1665,31 +1665,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>4.28889985715689</v>
+        <v>4.202062250532473</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>5.195908622561942</v>
+        <v>4.627389983301712</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>5.553661600002569</v>
+        <v>5.432928428251955</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.040377717101599</v>
+        <v>1.122456684981884</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.539559887669987</v>
+        <v>1.737639133906876</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.592055524173165</v>
+        <v>1.456894441921969</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.287691526398969</v>
+        <v>1.28820402497018</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.558087426264303</v>
+        <v>1.572754438055106</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.388048419220036</v>
+        <v>1.441965704004684</v>
       </c>
     </row>
     <row r="34">
@@ -1719,7 +1719,7 @@
         <v>0.9510288480887801</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.0211126472124068</v>
+        <v>0.0211126472124061</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>1.678518036242678</v>
@@ -1728,7 +1728,7 @@
         <v>1.23436580377996</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.1433633921852258</v>
+        <v>0.1433633921852244</v>
       </c>
     </row>
     <row r="35">
@@ -1739,31 +1739,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.2895994399487861</v>
+        <v>0.4718869772300183</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.205236754738257</v>
+        <v>-0.3702515142991482</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.033286926282839</v>
+        <v>-1.858074567652061</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.4977870269252501</v>
+        <v>-0.4403793122854627</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.7494549800004038</v>
+        <v>-0.6545661581064679</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.707140737240725</v>
+        <v>-1.615207473457093</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.1977051440261268</v>
+        <v>0.1215284103327404</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.3818191611490854</v>
+        <v>-0.1814999689940797</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.448863840197143</v>
+        <v>-1.264695926087608</v>
       </c>
     </row>
     <row r="36">
@@ -1774,31 +1774,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>7.338505669132729</v>
+        <v>7.183557111616401</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.95521242100486</v>
+        <v>6.092661784567207</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.610105660862348</v>
+        <v>5.94534879970288</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.88601469983427</v>
+        <v>3.00091261570013</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.682781894847617</v>
+        <v>2.615767082230214</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.792000988862182</v>
+        <v>1.772371899305572</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.283061592440796</v>
+        <v>3.135101955476332</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.712684088382691</v>
+        <v>2.84671744526969</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.686036134401722</v>
+        <v>1.703527310058307</v>
       </c>
     </row>
     <row r="37">
@@ -1824,7 +1824,7 @@
         <v>0.2541106612863595</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.005641205054328152</v>
+        <v>0.005641205054327966</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.481638425606598</v>
@@ -1833,7 +1833,7 @@
         <v>0.3541922037882996</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.04113707270985222</v>
+        <v>0.04113707270985182</v>
       </c>
     </row>
     <row r="38">
@@ -1844,31 +1844,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.02231842526229649</v>
+        <v>0.09453237055566426</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1939934749597826</v>
+        <v>-0.2045263199136242</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7337123774497599</v>
+        <v>-0.7007994521953479</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1286230453538358</v>
+        <v>-0.09889383797964778</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.168611906828933</v>
+        <v>-0.1657953007870078</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3898274192572762</v>
+        <v>-0.3699859305198202</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03647538073925834</v>
+        <v>0.02732232641655756</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1046422046004306</v>
+        <v>-0.04569039498927819</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3339747700417284</v>
+        <v>-0.317151283905415</v>
       </c>
     </row>
     <row r="39">
@@ -1879,31 +1879,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>5.299533587280707</v>
+        <v>5.645470315975569</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>4.771438072785696</v>
+        <v>4.53027018301648</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>4.984322419841035</v>
+        <v>4.481217678094664</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.9515828774130172</v>
+        <v>0.9636858072676766</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.9261986412947583</v>
+        <v>0.8644827868355812</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.5832791454711838</v>
+        <v>0.5667175772915543</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.087848131710311</v>
+        <v>1.110204272060861</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.9126552473759171</v>
+        <v>0.9693548093961964</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.5494990467116841</v>
+        <v>0.558863478933297</v>
       </c>
     </row>
     <row r="40">
@@ -1924,7 +1924,7 @@
         <v>0.6862568413589079</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>0.9620546066049889</v>
+        <v>0.9620546066049882</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>1.603439351461168</v>
@@ -1933,7 +1933,7 @@
         <v>1.450420179198204</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>1.03081010198428</v>
+        <v>1.030810101984279</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>1.319223608250152</v>
@@ -1942,7 +1942,7 @@
         <v>1.079973822133333</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>1.005494876575585</v>
+        <v>1.005494876575586</v>
       </c>
     </row>
     <row r="41">
@@ -1953,31 +1953,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.2065955695324393</v>
+        <v>0.07291039192625362</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.1757826685182249</v>
+        <v>-0.1286454280237478</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.04160590417426481</v>
+        <v>0.1342908759893241</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.626093349539937</v>
+        <v>0.5692206254278536</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.4510424652005402</v>
+        <v>0.4251173739764761</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.1340771183206566</v>
+        <v>0.1115905391504339</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.6904694456853807</v>
+        <v>0.6172653765843217</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.4315516506490004</v>
+        <v>0.3812081981577453</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.4270566052076569</v>
+        <v>0.3845813703726806</v>
       </c>
     </row>
     <row r="42">
@@ -1988,31 +1988,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.909585505497827</v>
+        <v>1.83518591293947</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.486463959996118</v>
+        <v>1.559793420919902</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.79438731404799</v>
+        <v>1.82714990699919</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.672225763034249</v>
+        <v>2.781356295683195</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.390090506492827</v>
+        <v>2.518292005493099</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.915089228919131</v>
+        <v>2.037731711009685</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.095819509185831</v>
+        <v>1.985766470198352</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.763393176588398</v>
+        <v>1.758145812738929</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.707225787070049</v>
+        <v>1.616228345181816</v>
       </c>
     </row>
     <row r="43">
@@ -2029,7 +2029,7 @@
         <v>0.2868445888789661</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.4021237261027146</v>
+        <v>0.4021237261027143</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.4094919100579414</v>
@@ -2038,7 +2038,7 @@
         <v>0.3704133424349465</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2632518636791027</v>
+        <v>0.2632518636791025</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.4166135153948813</v>
@@ -2047,7 +2047,7 @@
         <v>0.3410579432930357</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.317537339858054</v>
+        <v>0.3175373398580542</v>
       </c>
     </row>
     <row r="44">
@@ -2058,31 +2058,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.0698052018695077</v>
+        <v>0.01355025148458845</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.07334066363881334</v>
+        <v>-0.05771603371170985</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.01315250721385845</v>
+        <v>0.01323813410000135</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1334570855114125</v>
+        <v>0.1247499767397104</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.102182469803336</v>
+        <v>0.09593250071276416</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.03138992271568427</v>
+        <v>0.02440974242998087</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1936887704091463</v>
+        <v>0.1862651991047128</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.117488083175282</v>
+        <v>0.1020911122747639</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1225909529808223</v>
+        <v>0.1089330976424029</v>
       </c>
     </row>
     <row r="45">
@@ -2093,31 +2093,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.9408006773218978</v>
+        <v>0.9093034540278152</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.725730095402609</v>
+        <v>0.7611338718257138</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.9147773277824776</v>
+        <v>0.8926145751076606</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.7753729656508997</v>
+        <v>0.7770498944377542</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.6898341988113811</v>
+        <v>0.7365178877504845</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.5585825960782034</v>
+        <v>0.5997064818610782</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.746854594052907</v>
+        <v>0.7107045457671266</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.6093190938078539</v>
+        <v>0.5982247442491581</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.6066825142765885</v>
+        <v>0.5681468230646629</v>
       </c>
     </row>
     <row r="46">
